--- a/thirteen_fitting_failure_probability_data.xlsx
+++ b/thirteen_fitting_failure_probability_data.xlsx
@@ -8,82 +8,116 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/fn20944_bristol_ac_uk/Documents/YEAR 3_2022-23/RESOURCES FOR FRAGILITY CURVE FRAMEWORK/PROGRAMMING CODES/arch_compression/AFTER THE IALCEE PAPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="540" documentId="11_00258137CE119373B8E09673EFF2D3C2945C4B2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8274F4DC-34CC-427A-B840-D1E400CEE476}"/>
+  <xr:revisionPtr revIDLastSave="813" documentId="11_00258137CE119373B8E09673EFF2D3C2945C4B2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC6FF5B1-63DF-4BA2-A45D-6D7E78B19072}"/>
   <bookViews>
-    <workbookView xWindow="-15840" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="qeshta_et_al_2021" sheetId="2" r:id="rId1"/>
-    <sheet name="failure_probability_data" sheetId="1" r:id="rId2"/>
-    <sheet name="failure_probability_data_fit" sheetId="3" r:id="rId3"/>
+    <sheet name="baker_2015" sheetId="4" r:id="rId1"/>
+    <sheet name="qeshta_et_al_2021" sheetId="2" r:id="rId2"/>
+    <sheet name="failure_probability_data" sheetId="1" r:id="rId3"/>
+    <sheet name="failure_probability_data_fit" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">failure_probability_data_fit!$K$1:$K$2</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">qeshta_et_al_2021!$K$1:$K$2</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">baker_2015!$K$1:$K$2</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">failure_probability_data_fit!$K$1:$K$2</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">qeshta_et_al_2021!$K$1:$K$2</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">failure_probability_data_fit!$K$1</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">qeshta_et_al_2021!$K$1</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">failure_probability_data_fit!$K$2</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">qeshta_et_al_2021!$K$2</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">baker_2015!$K$1</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">failure_probability_data_fit!$K$1</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">qeshta_et_al_2021!$K$1</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">baker_2015!$K$2</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">failure_probability_data_fit!$K$2</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">qeshta_et_al_2021!$K$2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">failure_probability_data_fit!$H$13</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">qeshta_et_al_2021!$H$9</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">baker_2015!$H$11</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">failure_probability_data_fit!$H$13</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">qeshta_et_al_2021!$H$9</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -105,6 +139,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={6E187298-B188-4DC8-981E-F330EC4EC10A}</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{6E187298-B188-4DC8-981E-F330EC4EC10A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Very close values to the ones obtained via python.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={CEA9DF2D-7435-473E-ABF0-53E942AEB54E}</author>
   </authors>
   <commentList>
@@ -121,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>pier_local_scour_depths</t>
   </si>
@@ -164,8 +216,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -231,8 +283,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -265,66 +317,46 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>log_normal_fitting</c:v>
+            <c:v>lognormal_fitting</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>qeshta_et_al_2021!$M$2:$M$102</c:f>
+              <c:f>baker_2015!$M$2:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -418,535 +450,216 @@
                 <c:pt idx="30">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>qeshta_et_al_2021!$N$2:$N$102</c:f>
+              <c:f>baker_2015!$N$2:$N$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.5536937040344181E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.4193921232501668E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.4610325587712074E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.056644436627315E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.7070645610349839E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.6759569040108356E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.15820675651311855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1884234441685262E-295</c:v>
+                  <c:v>0.24485666922807653</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0542816359315451E-267</c:v>
+                  <c:v>0.33857196235646247</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3564090071103101E-242</c:v>
+                  <c:v>0.43214985249015436</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2586259384116826E-221</c:v>
+                  <c:v>0.52039395895604079</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6436485792744731E-202</c:v>
+                  <c:v>0.60019593027675489</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2304290180607866E-186</c:v>
+                  <c:v>0.67015136384852692</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.5360032318461744E-172</c:v>
+                  <c:v>0.73005581158138177</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2988906517351145E-159</c:v>
+                  <c:v>0.78045052955364114</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.6241036064521783E-147</c:v>
+                  <c:v>0.82227563747368204</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2159566218400056E-136</c:v>
+                  <c:v>0.85663226447242879</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4298636844989532E-127</c:v>
+                  <c:v>0.88463361140225805</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3283947113112619E-118</c:v>
+                  <c:v>0.90732064717753891</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2358184977654926E-110</c:v>
+                  <c:v>0.92562117475159478</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.7806856722804469E-103</c:v>
+                  <c:v>0.94033605814012267</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6909932892176795E-96</c:v>
+                  <c:v>0.95214124078545437</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5989539930898727E-90</c:v>
+                  <c:v>0.96159805244000474</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.6971479811249778E-84</c:v>
+                  <c:v>0.96916711334486605</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0336983953057715E-79</c:v>
+                  <c:v>0.97522306626019328</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.6442815140276654E-74</c:v>
+                  <c:v>0.98006861928780864</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3924899620659934E-69</c:v>
+                  <c:v>0.98394716415442951</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.9308885477281672E-65</c:v>
+                  <c:v>0.98705370071619025</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.2582565380998131E-61</c:v>
+                  <c:v>0.98954406075724488</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0656797701102544E-57</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.0262727544273252E-53</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.0608732426695411E-50</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.5817647786715879E-47</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.0900770933093453E-44</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.1287219761409594E-41</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.184746432243276E-39</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.0932620864531839E-36</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.0608196306927862E-34</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.864127394702426E-32</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.9932753849601949E-30</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.3952182067478081E-28</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.492047409898854E-26</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.3463910192008506E-25</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.8994277953275234E-23</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.2922328398494375E-22</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.447345522607649E-20</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.3561319909214583E-19</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9.8413029496918998E-18</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.5326637395084166E-16</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.0412356757849501E-15</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.3441601464691313E-14</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.3392938228578627E-13</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.0432488867800988E-12</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.5726460959475681E-11</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.0734046893203348E-10</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.535798723049038E-10</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.5699376294676197E-9</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.7584503360324721E-8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.8497517971229022E-8</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.1905492207555619E-7</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.1859713905428015E-6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.0485060519533147E-6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.274221805046187E-5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.7115532304365001E-5</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.0041014933621716E-4</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.5315612405866963E-4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.9675902673993653E-4</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.3193480386564419E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.7438776750222196E-3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.3834539909769141E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>9.9919504486161922E-3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.7591232499850097E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.9453007158011427E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.7016816451182795E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.1737659241077792E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.10487556014581836</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.14725995981585308</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.19907684911717805</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.25972963328500598</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.32781299065590785</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.40121491371352919</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.47733267951880037</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.55336262119703106</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.62660876556770884</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.69475514302057495</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.75605950158501567</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.80944713712878957</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.85450593753702575</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.89140172366937598</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.92074316816142732</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.94342744312304427</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.96049301140503063</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.97299751011834945</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.98192939316571959</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.98815408071904176</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.99238994668304892</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.99520674498480988</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.99703857010442554</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.99820441421359374</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.99893106691248368</c:v>
+                  <c:v>0.99154255943899205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F81D-4F77-975C-739AB02E4DD2}"/>
+              <c16:uniqueId val="{00000001-96A1-42B9-A64E-B9A9B51F34E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>failure_probability_data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>baker_2015!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>baker_2015!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.4193921232501668E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4610325587712074E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.056644436627315E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6759569040108356E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15820675651311855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24485666922807653</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33857196235646247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43214985249015436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96A1-42B9-A64E-B9A9B51F34E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -958,17 +671,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="629979888"/>
-        <c:axId val="629984808"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="629979888"/>
+        <c:axId val="953954720"/>
+        <c:axId val="953953736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="953954720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -978,8 +705,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1006,16 +733,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629984808"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossAx val="953953736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="629984808"/>
+        <c:axId val="953953736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1042,8 +765,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1067,7 +796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629979888"/>
+        <c:crossAx val="953954720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.000000000000001E-2"/>
@@ -1080,6 +809,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1138,36 +898,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1175,8 +905,667 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>lognormal_fitting</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qeshta_et_al_2021!$M$2:$M$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qeshta_et_al_2021!$N$2:$N$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1884234441685262E-295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0542816359315451E-267</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3564090071103101E-242</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2586259384116826E-221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6436485792744731E-202</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2304290180607866E-186</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5360032318461744E-172</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2988906517351145E-159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6241036064521783E-147</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2159566218400056E-136</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4298636844989532E-127</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3283947113112619E-118</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2358184977654926E-110</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7806856722804469E-103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6909932892176795E-96</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5989539930898727E-90</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6971479811249778E-84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0336983953057715E-79</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.6442815140276654E-74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.3924899620659934E-69</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.9308885477281672E-65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.2582565380998131E-61</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0656797701102544E-57</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0262727544273252E-53</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0608732426695411E-50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5817647786715879E-47</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0900770933093453E-44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1287219761409594E-41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.184746432243276E-39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0932620864531839E-36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0608196306927862E-34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.864127394702426E-32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.9932753849601949E-30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.3952182067478081E-28</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.492047409898854E-26</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.3463910192008506E-25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.8994277953275234E-23</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.2922328398494375E-22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.447345522607649E-20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.3561319909214583E-19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.8413029496918998E-18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5326637395084166E-16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0412356757849501E-15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.3441601464691313E-14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.3392938228578627E-13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0432488867800988E-12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5726460959475681E-11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0734046893203348E-10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.535798723049038E-10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.5699376294676197E-9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7584503360324721E-8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.8497517971229022E-8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1905492207555619E-7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1859713905428015E-6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.0485060519533147E-6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.274221805046187E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.7115532304365001E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0041014933621716E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.5315612405866963E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.9675902673993653E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3193480386564419E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7438776750222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.3834539909769141E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.9919504486161922E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7591232499850097E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9453007158011427E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.7016816451182795E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.1737659241077792E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.10487556014581836</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14725995981585308</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.19907684911717805</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.25972963328500598</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.32781299065590785</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.40121491371352919</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.47733267951880037</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.55336262119703106</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.62660876556770884</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.69475514302057495</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.75605950158501567</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.80944713712878957</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.85450593753702575</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89140172366937598</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.92074316816142732</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.94342744312304427</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.96049301140503063</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.97299751011834945</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.98192939316571959</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.98815408071904176</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99238994668304892</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99520674498480988</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99703857010442554</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99820441421359374</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99893106691248368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B98C-468E-B10A-1FA0534D60C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>failure_probability_data</c:v>
           </c:tx>
@@ -1278,6 +1667,7 @@
         <c:axId val="1085934680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1358,7 +1748,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1408,6 +1798,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1466,36 +1887,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1503,8 +1894,247 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>lognormal_fitting</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>failure_probability_data_fit!$M$2:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>failure_probability_data_fit!$N$2:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3436172620323989E-160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5850342620364821E-90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3022585512404321E-58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0077322857278932E-40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0263795053805497E-28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0608139575799717E-20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1996708619690128E-15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9919942945133642E-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4688981457129929E-8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2588006199466745E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3333762556427458E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9031950624738698E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2275263231321742E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18630493835133147</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4166369616716914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66516952355096381</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8473404987547537</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94400996260890102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98312735219743286</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99572402632093771</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99906809184891932</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99982175256342054</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99996953508715358</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99999527357209206</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9999993252292575</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99999991029587521</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9999999887809099</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99999999866814726</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99999999984876087</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99999999998346134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5C1-4CD6-9776-3AC965217FA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>failure_probability_data</c:v>
           </c:tx>
@@ -1630,9 +2260,24 @@
         <c:axId val="848972512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1740,65 +2385,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1812,7 +2400,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1827,372 +2415,7 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>log_normal_fitting</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>failure_probability_data_fit!$M$2:$M$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>failure_probability_data_fit!$N$2:$N$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3436172620323989E-160</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5850342620364821E-90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3022585512404321E-58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0077322857278932E-40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0263795053805497E-28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0608139575799717E-20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.1996708619690128E-15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.9919942945133642E-11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.4688981457129929E-8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2588006199466745E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.3333762556427458E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.9031950624738698E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.2275263231321742E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.18630493835133147</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.4166369616716914</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.66516952355096381</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.8473404987547537</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.94400996260890102</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.98312735219743286</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.99572402632093771</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.99906809184891932</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.99982175256342054</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.99996953508715358</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.99999527357209206</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.9999993252292575</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.99999991029587521</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.9999999887809099</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.99999999866814726</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.99999999984876087</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.99999999998346134</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BBD-4109-9954-D10A0A946BF0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="641134592"/>
-        <c:axId val="1078590696"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="641134592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1078590696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1078590696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="641134592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
-        <c:minorUnit val="5.000000000000001E-2"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2357,48 +2580,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2425,8 +2608,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2506,11 +2689,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2521,11 +2699,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2537,7 +2710,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2557,9 +2730,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2572,10 +2742,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2615,22 +2785,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2735,8 +2906,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2868,19 +3039,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2894,6 +3066,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3945,543 +4128,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>24765</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>48577</xdr:rowOff>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>73342</xdr:rowOff>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739521CD-A349-DB29-1F9D-67B2643DF072}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658C5CB4-9D91-E0D8-98DD-FD853CB0D3B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4499,6 +4166,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -4507,10 +4179,10 @@
       <xdr:rowOff>96202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>115252</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4529,7 +4201,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4538,7 +4210,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4571,42 +4243,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>43815</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88582</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>354330</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>115252</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D658B1B8-2A69-ED92-4C24-4B2ED1A54339}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4942,6 +4578,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K1" dT="2023-02-08T13:52:50.28" personId="{9CC475C1-7FD3-45EA-B992-FC3A0B9CBA60}" id="{6E187298-B188-4DC8-981E-F330EC4EC10A}">
+    <text>Very close values to the ones obtained via python.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2023-02-07T11:23:39.87" personId="{9CC475C1-7FD3-45EA-B992-FC3A0B9CBA60}" id="{CEA9DF2D-7435-473E-ABF0-53E942AEB54E}">
     <text>Take data from the excel file "thirteen_failure_probability_data"</text>
   </threadedComment>
@@ -4949,11 +4593,590 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694A767B-7645-434B-A9D2-E4789D00C3FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF060AB-5EE7-46B6-AEA0-A77F2FA7C631}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>1.0761157244724786</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>D2/C2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>_xlfn.NORM.DIST(LN(B2), LN($K$1), $K$2, TRUE)</f>
+        <v>4.4193921232501668E-5</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.BINOM.DIST(D2, C2, F2, FALSE)</f>
+        <v>0.99823376571833922</v>
+      </c>
+      <c r="H2">
+        <f>LN(G2)</f>
+        <v>-1.7677959125044964E-3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>0.42923661345649855</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="e">
+        <f>_xlfn.NORM.DIST(LN(M2), LN($K$1), $K$2, TRUE)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.3</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="0">D3/C3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="1">_xlfn.NORM.DIST(LN(B3), LN($K$1), $K$2, TRUE)</f>
+        <v>1.4610325587712074E-3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="2">_xlfn.BINOM.DIST(D3, C3, F3, FALSE)</f>
+        <v>0.94319329713199129</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="3">LN(G3)</f>
+        <v>-5.8484036302472328E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N32" si="4">_xlfn.NORM.DIST(LN(M3), LN($K$1), $K$2, TRUE)</f>
+        <v>1.5536937040344181E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1.056644436627315E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.6538308336163946</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>-0.42490662517940653</v>
+      </c>
+      <c r="M4">
+        <v>0.2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>4.4193921232501668E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>8.6759569040108356E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.1973480834759038</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>-1.6227861882155774</v>
+      </c>
+      <c r="M5">
+        <v>0.3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>1.4610325587712074E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.7</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.15820675651311855</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.17237843787161367</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>-1.7580629989247616</v>
+      </c>
+      <c r="M6">
+        <v>0.4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1.056644436627315E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.24485666922807653</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>6.9667577619571139E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>-2.6640202398919128</v>
+      </c>
+      <c r="M7">
+        <v>0.5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>3.7070645610349839E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.9</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.33857196235646247</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.11925922551910811</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>-2.126455789362363</v>
+      </c>
+      <c r="M8">
+        <v>0.6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>8.6759569040108356E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.43214985249015436</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.11751127548643964</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>-2.1412209884152218</v>
+      </c>
+      <c r="M9">
+        <v>0.7</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0.15820675651311855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>0.8</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>0.24485666922807653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H2:H9)</f>
+        <v>-10.79770466220422</v>
+      </c>
+      <c r="M11">
+        <v>0.9</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>0.33857196235646247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>0.43214985249015436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>0.52039395895604079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>1.2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>0.60019593027675489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>1.3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>0.67015136384852692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>1.4</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>0.73005581158138177</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>1.5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>0.78045052955364114</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>1.6</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>0.82227563747368204</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>1.7</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>0.85663226447242879</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>1.8</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>0.88463361140225805</v>
+      </c>
+    </row>
+    <row r="21" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>1.9</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>0.90732064717753891</v>
+      </c>
+    </row>
+    <row r="22" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>0.92562117475159478</v>
+      </c>
+    </row>
+    <row r="23" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>2.1</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>0.94033605814012267</v>
+      </c>
+    </row>
+    <row r="24" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>0.95214124078545437</v>
+      </c>
+    </row>
+    <row r="25" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>0.96159805244000474</v>
+      </c>
+    </row>
+    <row r="26" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>2.4</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>0.96916711334486605</v>
+      </c>
+    </row>
+    <row r="27" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>2.5</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>0.97522306626019328</v>
+      </c>
+    </row>
+    <row r="28" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>2.6</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>0.98006861928780864</v>
+      </c>
+    </row>
+    <row r="29" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>2.7</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>0.98394716415442951</v>
+      </c>
+    </row>
+    <row r="30" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>2.8</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>0.98705370071619025</v>
+      </c>
+    </row>
+    <row r="31" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>2.9</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>0.98954406075724488</v>
+      </c>
+    </row>
+    <row r="32" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>0.99154255943899205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694A767B-7645-434B-A9D2-E4789D00C3FA}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6103,10 +6326,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -6273,11 +6497,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2349DA-4909-43F6-8DAD-E74E96140FF2}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6519,7 +6743,7 @@
         <v>2.6687661115795702E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f>IFERROR(_xlfn.BINOM.DIST(D6, C6, F6, FALSE),"")</f>
         <v>2.2057893946222259E-2</v>
       </c>
       <c r="H6">
@@ -6559,11 +6783,11 @@
         <v>0.27992197620647974</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(_xlfn.BINOM.DIST(D7, C7, F7, FALSE),"")</f>
         <v>0</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="3"/>
+        <f>IFERROR(LN(G7),"")</f>
         <v/>
       </c>
       <c r="M7">
@@ -6599,7 +6823,7 @@
         <v>0.8881573797864839</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f>IFERROR(_xlfn.BINOM.DIST(D8, C8, F8, FALSE),"")</f>
         <v>0</v>
       </c>
       <c r="H8" t="str">
@@ -6719,7 +6943,7 @@
         <v>0.99999991029587521</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f>IFERROR(_xlfn.BINOM.DIST(D11, C11, F11, FALSE),"")</f>
         <v>0.99106970123545957</v>
       </c>
       <c r="H11">

--- a/thirteen_fitting_failure_probability_data.xlsx
+++ b/thirteen_fitting_failure_probability_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/fn20944_bristol_ac_uk/Documents/YEAR 3_2022-23/RESOURCES FOR FRAGILITY CURVE FRAMEWORK/PROGRAMMING CODES/arch_compression/AFTER THE IALCEE PAPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="813" documentId="11_00258137CE119373B8E09673EFF2D3C2945C4B2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC6FF5B1-63DF-4BA2-A45D-6D7E78B19072}"/>
+  <xr:revisionPtr revIDLastSave="814" documentId="11_00258137CE119373B8E09673EFF2D3C2945C4B2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEE4369A-E4C9-4713-BC18-950B19159470}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,6 +139,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={D4A4EB58-BEF6-4D68-B7E0-F6DC8F129336}</author>
+  </authors>
+  <commentList>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{D4A4EB58-BEF6-4D68-B7E0-F6DC8F129336}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The paper presents a different graph.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={6E187298-B188-4DC8-981E-F330EC4EC10A}</author>
   </authors>
   <commentList>
@@ -154,7 +172,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={CEA9DF2D-7435-473E-ABF0-53E942AEB54E}</author>
@@ -4578,13 +4596,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="X2" dT="2023-02-08T17:55:24.93" personId="{9CC475C1-7FD3-45EA-B992-FC3A0B9CBA60}" id="{D4A4EB58-BEF6-4D68-B7E0-F6DC8F129336}">
+    <text>The paper presents a different graph.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="K1" dT="2023-02-08T13:52:50.28" personId="{9CC475C1-7FD3-45EA-B992-FC3A0B9CBA60}" id="{6E187298-B188-4DC8-981E-F330EC4EC10A}">
     <text>Very close values to the ones obtained via python.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2023-02-07T11:23:39.87" personId="{9CC475C1-7FD3-45EA-B992-FC3A0B9CBA60}" id="{CEA9DF2D-7435-473E-ABF0-53E942AEB54E}">
     <text>Take data from the excel file "thirteen_failure_probability_data"</text>
@@ -4593,11 +4619,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF060AB-5EE7-46B6-AEA0-A77F2FA7C631}">
-  <dimension ref="A1:N32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF060AB-5EE7-46B6-AEA0-A77F2FA7C631}">
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4611,7 +4637,7 @@
     <col min="14" max="14" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4649,7 +4675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4692,7 +4718,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4729,7 +4755,7 @@
         <v>1.5536937040344181E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4766,7 +4792,7 @@
         <v>4.4193921232501668E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4803,7 +4829,7 @@
         <v>1.4610325587712074E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4840,7 +4866,7 @@
         <v>1.056644436627315E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4877,7 +4903,7 @@
         <v>3.7070645610349839E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4914,7 +4940,7 @@
         <v>8.6759569040108356E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4951,7 +4977,7 @@
         <v>0.15820675651311855</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M10">
         <v>0.8</v>
       </c>
@@ -4960,7 +4986,7 @@
         <v>0.24485666922807653</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
@@ -4976,7 +5002,7 @@
         <v>0.33857196235646247</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M12">
         <v>1</v>
       </c>
@@ -4985,7 +5011,7 @@
         <v>0.43214985249015436</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M13">
         <v>1.1000000000000001</v>
       </c>
@@ -4994,7 +5020,7 @@
         <v>0.52039395895604079</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M14">
         <v>1.2</v>
       </c>
@@ -5003,7 +5029,7 @@
         <v>0.60019593027675489</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M15">
         <v>1.3</v>
       </c>
@@ -5012,7 +5038,7 @@
         <v>0.67015136384852692</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M16">
         <v>1.4</v>
       </c>
@@ -5168,6 +5194,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5175,7 +5202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694A767B-7645-434B-A9D2-E4789D00C3FA}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="H2" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
@@ -6501,7 +6528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2349DA-4909-43F6-8DAD-E74E96140FF2}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6623,7 +6650,7 @@
         <v>2.9501699776708563E-61</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="2">IFERROR(_xlfn.BINOM.DIST(D3, C3, F3, FALSE),"")</f>
+        <f t="shared" ref="G3:G10" si="2">IFERROR(_xlfn.BINOM.DIST(D3, C3, F3, FALSE),"")</f>
         <v>0</v>
       </c>
       <c r="H3" t="str">
